--- a/biology/Microbiologie/Uronematidae/Uronematidae.xlsx
+++ b/biology/Microbiologie/Uronematidae/Uronematidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Uronematidae sont une famille de Ciliés de la classe des Oligohymenophorea et de l'ordre des Philasterida.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de la famille vient du genre type Uronema, composé du préfixe ur, « queue », et du suffixe nema, « fil, filament », en référence au cil caudal (parfois plusieurs cils caudaux) que ce cilié possède[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de la famille vient du genre type Uronema, composé du préfixe ur, « queue », et du suffixe nema, « fil, filament », en référence au cil caudal (parfois plusieurs cils caudaux) que ce cilié possède.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Uronematidae ont une petite taille (&lt; 80 μm). Leur forme varie entre strictement ovoïde et allongée-ovoïde, avec leur extrémité antérieure légèrement aplatie et leur pôle antérieur visiblement nu. Ils vivent en natation libre. Leur ciliation somatique est holotriche (c. à d. uniforme) et clairsemée. Ils possèdent un ou plusieurs cils caudaux. Leur région buccale est une dépression antérieure peu profonde. On y observe des polykinétides oraux réduits, avec le polykinétide oral 1 typiquement non cilié et une ciliature buccale relativement peu visible sur les deux autres polykinétides oraux. Leur scutica[note 1] consiste en un arrangement triangulaire de kinétosomes ciliés dans le méridien principal. Leur macronoyau est globulaire à ellipsoïde. Micronoyau, vacuole contractile et  cytoprocte (zone anale) sont présents. Ils sont bactérivores[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Uronematidae ont une petite taille (&lt; 80 μm). Leur forme varie entre strictement ovoïde et allongée-ovoïde, avec leur extrémité antérieure légèrement aplatie et leur pôle antérieur visiblement nu. Ils vivent en natation libre. Leur ciliation somatique est holotriche (c. à d. uniforme) et clairsemée. Ils possèdent un ou plusieurs cils caudaux. Leur région buccale est une dépression antérieure peu profonde. On y observe des polykinétides oraux réduits, avec le polykinétide oral 1 typiquement non cilié et une ciliature buccale relativement peu visible sur les deux autres polykinétides oraux. Leur scutica[note 1] consiste en un arrangement triangulaire de kinétosomes ciliés dans le méridien principal. Leur macronoyau est globulaire à ellipsoïde. Micronoyau, vacuole contractile et  cytoprocte (zone anale) sont présents. Ils sont bactérivores.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Uronematidae vivent dans des habitats marins, d’eau douce et parfois terrestres[1]. Ils ont une très large répartition mondiale[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Uronematidae vivent dans des habitats marins, d’eau douce et parfois terrestres. Ils ont une très large répartition mondiale.
 </t>
         </is>
       </c>
@@ -604,16 +622,18 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon le World Register of Marine Species                               (13 octobre 2023)[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon le World Register of Marine Species                               (13 octobre 2023) :
 Homalogastra Kahl, 1926
 Urocyclon Song &amp; Wilbert, 2000
 Uronema Dujardin, 1841  genre type
 Espèce type : Uronema marina Dujardin, 1841
 Uronemella Song &amp; Wilbert, 2002
 Uropedalium Kahl, 1928
-Selon GBIF       (13 octobre 2023)[4] :
+Selon GBIF       (13 octobre 2023) :
 Homalogastra Kahl, 1926
 Opisthostrombidium
 Pseuduronema Hoare, 1927
@@ -650,9 +670,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Uronematidae Thompson, 1964[3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Uronematidae Thompson, 1964.
 </t>
         </is>
       </c>
